--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\15-Sept-2023batch\opencart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\IdeaProjects\OpenCart_Framework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD60-ACC2-4D41-9A18-B0F87EEF7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D83827-29FC-4D01-A5EC-EE55CD609CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="17589" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>nivangunevrushali.vn@gmail.com</t>
+  </si>
+  <si>
+    <t>Vrusha123$</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,6 +157,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -170,7 +187,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.23046875" customWidth="1"/>
+    <col min="1" max="1" width="40.3046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.3046875" customWidth="1"/>
     <col min="3" max="3" width="18.15234375" customWidth="1"/>
   </cols>
@@ -520,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -531,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -542,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
@@ -563,8 +580,35 @@
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
